--- a/data/то_что_отдадут_числа.xlsx
+++ b/data/то_что_отдадут_числа.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#python\SchedulingClasses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="22080" windowHeight="9780"/>
+    <workbookView xWindow="3840" yWindow="0" windowWidth="22080" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="то_что_отдадут_числа" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,5 +523,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>